--- a/Nodes.xlsx
+++ b/Nodes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>plate</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>[{1, get up}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Guard turns around* "Follow me" </t>
+  </si>
+  <si>
+    <t>[{4, follow him}]</t>
+  </si>
+  <si>
+    <t>The guard seems to want you to follow</t>
+  </si>
+  <si>
+    <t>[follow him]</t>
   </si>
 </sst>
 </file>
@@ -395,17 +407,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="96.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -485,6 +497,58 @@
         <v>16</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
